--- a/forms/app/cholera_suspicion_follow_up.xlsx
+++ b/forms/app/cholera_suspicion_follow_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">danger_signs</t>
   </si>
   <si>
-    <t xml:space="preserve">Danger Sign Follow-up - Baby</t>
+    <t xml:space="preserve">Cholera Follow Up Form</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no</t>
@@ -1300,15 +1300,15 @@
   </sheetPr>
   <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J49" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="bottomRight" activeCell="U57" activeCellId="0" sqref="U57"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.29"/>
@@ -1323,7 +1323,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="73.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="30.02"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="24" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="0" width="29.86"/>
   </cols>
@@ -4632,7 +4632,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.86"/>
@@ -4971,15 +4971,15 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.57"/>
   </cols>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="C2" s="27" t="n">
         <f aca="true">NOW()</f>
-        <v>45241.8320923893</v>
+        <v>45245.7854186156</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>188</v>
@@ -5091,7 +5091,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>

--- a/forms/app/cholera_suspicion_follow_up.xlsx
+++ b/forms/app/cholera_suspicion_follow_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="258">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -253,18 +253,6 @@
     <t xml:space="preserve">../inputs/contact/name</t>
   </si>
   <si>
-    <t xml:space="preserve">t_danger_signs_referral_follow_up_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t_danger_signs_referral_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../danger_signs/r_danger_sign_present</t>
-  </si>
-  <si>
     <t xml:space="preserve">danger_signs</t>
   </si>
   <si>
@@ -283,6 +271,49 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">visit_confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'no'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason for not reporting to the hospital</t>
+  </si>
+  <si>
     <t xml:space="preserve">danger_sign_present</t>
   </si>
   <si>
@@ -298,10 +329,205 @@
     <t xml:space="preserve">Please confirm if the patient has any of the following danger signs.</t>
   </si>
   <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diarrhoea</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">danger_sign_present</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple symptoms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose any of this danger signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">congratulate_no_ds_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p style=”color:green;”&gt;Great news! Please continue to closely monitor the patient.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">danger_sign_present</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'no'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">refer_patient_note_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The patient should be taken to the health facility immediately if experiencing any of these danger signs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer_patient_note_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholera Follow – up summary&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">complete_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">action</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure you submit to complete this action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5 center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_patient_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Details&lt;i class="fa fa-plus-square"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_of_patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${patient_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_of_patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${patient_age_in_years} &lt;span&gt;years old&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client is doing well, encourage them to continue watching on hygiene and sanitation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alert &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please recommend ${patient_name} to health facility immediately &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo_task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill Referral Form for the Patient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">symptoms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profuse_watery_diarrhea</t>
   </si>
   <si>
     <t xml:space="preserve">Profuse watery diarrhea</t>
@@ -313,28 +539,22 @@
     <t xml:space="preserve">Dehydration</t>
   </si>
   <si>
-    <t xml:space="preserve">difficulty_feeding</t>
+    <t xml:space="preserve">lack_of_appetite</t>
   </si>
   <si>
     <t xml:space="preserve">Lack of appetite</t>
   </si>
   <si>
-    <t xml:space="preserve">vomit</t>
+    <t xml:space="preserve">vomits_everything</t>
   </si>
   <si>
     <t xml:space="preserve">Vomits everything</t>
   </si>
   <si>
-    <t xml:space="preserve">thirst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thirstiness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restlessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body restlessnessness</t>
+    <t xml:space="preserve">body_restlessnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body restlessness</t>
   </si>
   <si>
     <t xml:space="preserve">leg_cramps</t>
@@ -343,270 +563,49 @@
     <t xml:space="preserve">Leg cramps</t>
   </si>
   <si>
+    <t xml:space="preserve">dry_skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry skin</t>
+  </si>
+  <si>
     <t xml:space="preserve">fever</t>
   </si>
   <si>
     <t xml:space="preserve">Fever</t>
   </si>
   <si>
-    <t xml:space="preserve">dry_skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_danger_sign_present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if(selected(../diarrhoea, 'yes') or
-selected(../dehydration, 'yes') or
-selected(../difficulty_feeding, 'yes') or
-selected(../vomit, 'yes') or
-selected(../thirst, 'yes') or
-selected(../restlessness, 'yes') or
-selected(../leg_cramps, 'yes') or
-selected(../fever, 'yes') or
-selected(../dry_skin, 'yes'), 'yes', 
-if(selected(../diarrhoea, 'no') and
-selected(../dehydration, 'no') and
-selected(../difficulty_feeding, 'no') and
-selected(../vomit, 'no') and
-selected(../thirst, 'no') and
-selected(../restlessness, 'no') and
-selected(../leg_cramps, 'no') and
-selected(../fever, 'no') and
-selected(../dry_skin, 'no'), 'no', ''))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">congratulate_no_ds_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great news! Please continue to closely monitor the patient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refer_patient_note_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The patient should be taken to the health facility immediately if experiencing any of these danger signs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refer_patient_note_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
+    <t xml:space="preserve">form_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cholera Suspicion follow up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cholera_follow_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pages</t>
   </si>
   <si>
     <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__visited_hf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${visit_confirm}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient was taken to the health facility as recommended.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__still_experiencing_danger_sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${danger_sign_present}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient is still experiencing any danger signs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__diarrhoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${diarrhoea}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient has diarrhoea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dehydration}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient is suffering from dehydration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__difficulty_feeding_or_drinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${difficulty_feeding}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient is having difficulty in feeding .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__vomits_everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${vomit}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient vomits everything.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__thirst_or_unconscious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${thirst}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient is thirsty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__body_restlessnessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${restlessness}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient's is restlessness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__leg_cramps_color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${leg_cramps}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient has muscle cramps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${fever}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient has a fever.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__dry_skin_color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${dry_skin}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not the patient has dry skin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__has_danger_sign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${r_danger_sign_present}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whether or not any danger signs are present.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__patient_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__household_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/contact/parent/_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">__source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">__delivery_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../../inputs/delivery_uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery UUID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cholera Suspicion follow up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cholera_follow_up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pages</t>
   </si>
   <si>
     <t xml:space="preserve">en</t>
@@ -911,7 +910,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -948,6 +947,33 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -974,7 +1000,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,8 +1045,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF666699"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1031,8 +1057,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1100,7 +1132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1137,63 +1169,83 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1201,7 +1253,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1209,15 +1265,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1268,9 +1324,9 @@
       <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFD9EAD3"/>
       <rgbColor rgb="FFFCE5CD"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFF3F3F3"/>
       <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFF3F3F3"/>
-      <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -1298,17 +1354,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ72"/>
+  <dimension ref="A1:AJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.29"/>
@@ -1318,7 +1374,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="37.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="0" width="25.86"/>
@@ -2598,117 +2654,113 @@
       <c r="AJ28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="C31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2717,10 +2769,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="K32" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -2731,7 +2783,9 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
+      <c r="W32" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
@@ -2748,13 +2802,13 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2763,7 +2817,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -2794,13 +2848,13 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2808,10 +2862,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -2832,7 +2886,9 @@
       <c r="AC34" s="8"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
+      <c r="AF34" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
@@ -2840,13 +2896,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2854,9 +2910,11 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8" t="s">
-        <v>91</v>
+      <c r="J35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -2878,9 +2936,7 @@
       <c r="AC35" s="8"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
-      <c r="AF35" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
       <c r="AI35" s="8"/>
@@ -2888,13 +2944,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2902,11 +2958,9 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>91</v>
+      <c r="J36" s="8"/>
+      <c r="K36" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -2928,7 +2982,9 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="8"/>
+      <c r="AF36" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
@@ -2936,13 +2992,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2950,11 +3006,9 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>91</v>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -2976,7 +3030,9 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
+      <c r="AF37" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
@@ -2984,13 +3040,13 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2998,11 +3054,9 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>91</v>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -3024,7 +3078,9 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="8"/>
+      <c r="AF38" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
@@ -3032,26 +3088,18 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -3079,1532 +3127,918 @@
       <c r="AJ39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="A41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
+      <c r="C41" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="8"/>
-      <c r="AG42" s="8"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
+      <c r="C42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="8"/>
-      <c r="AG43" s="8"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
+      <c r="A43" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="8"/>
-      <c r="AD44" s="8"/>
-      <c r="AE44" s="8"/>
-      <c r="AF44" s="8"/>
-      <c r="AG44" s="8"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A44" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="13"/>
+      <c r="AJ44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="8"/>
-      <c r="AD45" s="8"/>
-      <c r="AE45" s="8"/>
-      <c r="AF45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG45" s="8"/>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="13"/>
+      <c r="AF45" s="13"/>
+      <c r="AG45" s="13"/>
+      <c r="AH45" s="13"/>
+      <c r="AI45" s="13"/>
+      <c r="AJ45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-      <c r="AD46" s="8"/>
-      <c r="AE46" s="8"/>
-      <c r="AF46" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG46" s="8"/>
-      <c r="AH46" s="8"/>
-      <c r="AI46" s="8"/>
-      <c r="AJ46" s="8"/>
+      <c r="A46" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="8"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="8"/>
-      <c r="AD47" s="8"/>
-      <c r="AE47" s="8"/>
-      <c r="AF47" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG47" s="8"/>
-      <c r="AH47" s="8"/>
-      <c r="AI47" s="8"/>
-      <c r="AJ47" s="8"/>
+      <c r="A47" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="13"/>
+      <c r="AJ47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="8"/>
-      <c r="AD48" s="8"/>
-      <c r="AE48" s="8"/>
-      <c r="AF48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG48" s="8"/>
-      <c r="AH48" s="8"/>
-      <c r="AI48" s="8"/>
-      <c r="AJ48" s="8"/>
+      <c r="A48" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="13"/>
+      <c r="AD48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="13"/>
+      <c r="AJ48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
+      <c r="AI50" s="13"/>
+      <c r="AJ50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="8"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="8"/>
-      <c r="AD49" s="8"/>
-      <c r="AE49" s="8"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="8"/>
-      <c r="AH49" s="8"/>
-      <c r="AI49" s="8"/>
-      <c r="AJ49" s="8"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-      <c r="AH50" s="4"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="13"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13"/>
+      <c r="AH52" s="13"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13"/>
+      <c r="AG54" s="13"/>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="13"/>
+      <c r="AJ54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="13"/>
+      <c r="AF55" s="13"/>
+      <c r="AG55" s="13"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="13"/>
+      <c r="AJ55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="13"/>
+      <c r="AJ56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
+      <c r="AG57" s="13"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="13"/>
+      <c r="AJ57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="13"/>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="13"/>
+      <c r="AJ58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="13"/>
+      <c r="AE59" s="13"/>
+      <c r="AF59" s="13"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="13"/>
+      <c r="AJ59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+      <c r="AA60" s="18"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="18"/>
+      <c r="AJ60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="13"/>
-      <c r="AJ64" s="13"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI65" s="11"/>
-      <c r="AJ65" s="11"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-      <c r="AA66" s="11"/>
-      <c r="AB66" s="11"/>
-      <c r="AC66" s="11"/>
-      <c r="AD66" s="11"/>
-      <c r="AE66" s="11"/>
-      <c r="AF66" s="11"/>
-      <c r="AG66" s="11"/>
-      <c r="AH66" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI66" s="11"/>
-      <c r="AJ66" s="11"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-      <c r="AA68" s="11"/>
-      <c r="AB68" s="11"/>
-      <c r="AC68" s="11"/>
-      <c r="AD68" s="11"/>
-      <c r="AE68" s="11"/>
-      <c r="AF68" s="11"/>
-      <c r="AG68" s="11"/>
-      <c r="AH68" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI68" s="11"/>
-      <c r="AJ68" s="11"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="11"/>
-      <c r="AH69" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI69" s="11"/>
-      <c r="AJ69" s="11"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="11"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI70" s="11"/>
-      <c r="AJ70" s="11"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
-      <c r="AC71" s="13"/>
-      <c r="AD71" s="13"/>
-      <c r="AE71" s="13"/>
-      <c r="AF71" s="13"/>
-      <c r="AG71" s="13"/>
-      <c r="AH71" s="13"/>
-      <c r="AI71" s="13"/>
-      <c r="AJ71" s="13"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="13"/>
-      <c r="AD72" s="13"/>
-      <c r="AE72" s="13"/>
-      <c r="AF72" s="13"/>
-      <c r="AG72" s="13"/>
-      <c r="AH72" s="13"/>
-      <c r="AI72" s="13"/>
-      <c r="AJ72" s="13"/>
-    </row>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+      <c r="AA61" s="18"/>
+      <c r="AB61" s="18"/>
+      <c r="AC61" s="18"/>
+      <c r="AD61" s="18"/>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="18"/>
+      <c r="AI61" s="18"/>
+      <c r="AJ61" s="18"/>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J72" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J61" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4629,329 +4063,391 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="A2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="A3" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="A4" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="24"/>
+      <c r="A5" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C6" s="24"/>
+      <c r="A6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="24"/>
+      <c r="A7" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="24"/>
+      <c r="A8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C9" s="24"/>
+      <c r="A9" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C10" s="24"/>
+      <c r="A10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="24"/>
+      <c r="A11" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="24"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="24"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="24"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="24"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="24"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="24"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="24"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="24"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="24"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="24"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="24"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="24"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="24"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="24"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="24"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="24"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="24"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C29" s="24"/>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="24"/>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="24"/>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="24"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="24"/>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="24"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="24"/>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="24"/>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="24"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="24"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="24"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="24"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="24"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="24"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="24"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="24"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="24"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="24"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="24"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="24"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="24"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="24"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="24"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="24"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="24"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="24"/>
+      <c r="C54" s="29"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="24"/>
+      <c r="C55" s="29"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="24"/>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="24"/>
+      <c r="C57" s="29"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="24"/>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="24"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="24"/>
+      <c r="C60" s="29"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C61" s="24"/>
+      <c r="C61" s="29"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C62" s="24"/>
+      <c r="C62" s="29"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C63" s="24"/>
+      <c r="C63" s="29"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C64" s="24"/>
+      <c r="C64" s="29"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="24"/>
+      <c r="C65" s="29"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C66" s="24"/>
+      <c r="C66" s="29"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C67" s="24"/>
+      <c r="C67" s="29"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4971,13 +4467,13 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
@@ -4985,87 +4481,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="A1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="27" t="n">
+      <c r="A2" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="33" t="n">
         <f aca="true">NOW()</f>
-        <v>45245.7854186156</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+        <v>45252.719618598</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5091,1128 +4587,1128 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="C12" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C19" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C20" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C26" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C27" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C28" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C29" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="B31" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="C31" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="C32" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6223,26 +5719,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B45" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B46" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6252,290 +5748,290 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
+      <c r="A48" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
+      <c r="A49" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>262</v>
+      <c r="A58" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>264</v>
+      <c r="A59" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>266</v>
+      <c r="A60" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>227</v>
+      <c r="A61" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>269</v>
+      <c r="A63" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>271</v>
+      <c r="A64" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>273</v>
+      <c r="A65" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>275</v>
+      <c r="A66" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B67" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>277</v>
+      <c r="A67" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/app/cholera_suspicion_follow_up.xlsx
+++ b/forms/app/cholera_suspicion_follow_up.xlsx
@@ -296,6 +296,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">visit_confirm</t>
     </r>
@@ -345,6 +346,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">danger_sign_present</t>
     </r>
@@ -391,6 +393,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">danger_sign_present</t>
     </r>
@@ -596,7 +599,7 @@
     <t xml:space="preserve">default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Cholera Suspicion follow up</t>
+    <t xml:space="preserve">Cholera Suspicion Follow Up</t>
   </si>
   <si>
     <t xml:space="preserve">cholera_follow_up</t>
@@ -910,7 +913,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -958,18 +961,12 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1132,7 +1129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1201,47 +1198,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,15 +1210,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1265,15 +1258,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1364,7 +1357,7 @@
       <selection pane="bottomRight" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.29"/>
@@ -1374,7 +1367,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="8" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="53.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="37.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="0" width="25.86"/>
@@ -4066,7 +4059,7 @@
       <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.86"/>
@@ -4178,10 +4171,10 @@
       <c r="A4" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D4" s="29"/>
@@ -4470,10 +4463,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
@@ -4499,7 +4492,7 @@
       <c r="F1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>155</v>
       </c>
       <c r="H1" s="19"/>
@@ -4523,15 +4516,15 @@
       <c r="Z1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="33" t="n">
+      <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>45252.719618598</v>
+        <v>45259.7595040244</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>158</v>
@@ -4540,7 +4533,7 @@
         <v>159</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>160</v>
       </c>
       <c r="H2" s="27"/>
@@ -4587,7 +4580,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>
@@ -6008,7 +6001,7 @@
       <c r="B72" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>213</v>
       </c>
     </row>

--- a/forms/app/cholera_suspicion_follow_up.xlsx
+++ b/forms/app/cholera_suspicion_follow_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="271">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -362,13 +362,52 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">select_multiple symptoms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose any of this danger signs</t>
+    <t xml:space="preserve">profuse_watery_diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profuse watery diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehydration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lack_of_appetite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of appetite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vomits_everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vomits everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body_restlessnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body restlessness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leg_cramps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leg cramps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry_skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever</t>
   </si>
   <si>
     <t xml:space="preserve">congratulate_no_ds_note</t>
@@ -409,18 +448,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">refer_patient_note_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The patient should be taken to the health facility immediately if experiencing any of these danger signs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">refer_patient_note_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
-  </si>
-  <si>
     <t xml:space="preserve">group_review</t>
   </si>
   <si>
@@ -485,6 +512,296 @@
     <t xml:space="preserve">${patient_age_in_years} &lt;span&gt;years old&lt;/span&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The patient is experiencing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diarrhoea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">profuse_watery_diarrhea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dehydrations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">dehydration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">appetite</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lack_of_appetite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">vomiting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">vomits_everything</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">restlessness</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">body_restlessnes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cramps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">leg_cramps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dry</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dry_skin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">feve</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fever</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} = 'yes'</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">advise</t>
   </si>
   <si>
@@ -528,54 +845,6 @@
   </si>
   <si>
     <t xml:space="preserve">symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profuse_watery_diarrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profuse watery diarrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehydration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lack_of_appetite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of appetite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vomits_everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vomits everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body_restlessnes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body restlessness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leg_cramps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg cramps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dry_skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry skin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fever</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -913,7 +1182,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -969,6 +1238,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1170,6 +1451,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1198,55 +1483,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1254,19 +1527,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1347,17 +1628,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ1048576"/>
+  <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="C47" activeCellId="0" sqref="C47"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.29"/>
@@ -1373,7 +1654,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="15" style="0" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="73.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="30.02"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="29" min="24" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="24" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="0" width="29.86"/>
   </cols>
   <sheetData>
@@ -2888,27 +3169,17 @@
       <c r="AJ34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -2937,13 +3208,13 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2953,7 +3224,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -2975,9 +3246,7 @@
       <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
       <c r="AE36" s="8"/>
-      <c r="AF36" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
@@ -2985,13 +3254,13 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>100</v>
+        <v>78</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3023,9 +3292,7 @@
       <c r="AC37" s="8"/>
       <c r="AD37" s="8"/>
       <c r="AE37" s="8"/>
-      <c r="AF37" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
@@ -3033,13 +3300,13 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3071,9 +3338,7 @@
       <c r="AC38" s="8"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
-      <c r="AF38" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
@@ -3081,10 +3346,14 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -3092,7 +3361,9 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -3120,918 +3391,1814 @@
       <c r="AJ39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-      <c r="AH40" s="4"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
+      <c r="A40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B50" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="10" t="s">
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="14"/>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
+      <c r="AC60" s="14"/>
+      <c r="AD60" s="14"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
+      <c r="AH60" s="14"/>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="14"/>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="14"/>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="14"/>
+      <c r="W62" s="14"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="M41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="s">
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B64" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B65" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="s">
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="14"/>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
+      <c r="L67" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15" t="s">
+      <c r="B68" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L68" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
+      <c r="B69" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="14"/>
+      <c r="AI69" s="14"/>
+      <c r="AJ69" s="14"/>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="12" t="s">
+      <c r="B70" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L70" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="13"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="13"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
+      <c r="AH70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="13"/>
-      <c r="AI51" s="13"/>
-      <c r="AJ51" s="13"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="13"/>
-      <c r="AJ52" s="13"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
-      <c r="AI53" s="18"/>
-      <c r="AJ53" s="18"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="18"/>
-      <c r="AI54" s="13"/>
-      <c r="AJ54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
-      <c r="AG55" s="13"/>
-      <c r="AH55" s="18"/>
-      <c r="AI55" s="13"/>
-      <c r="AJ55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="18"/>
-      <c r="AI56" s="13"/>
-      <c r="AJ56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="18"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="13"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13"/>
-      <c r="AG58" s="13"/>
-      <c r="AH58" s="18"/>
-      <c r="AI58" s="13"/>
-      <c r="AJ58" s="13"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="18"/>
-      <c r="AI59" s="13"/>
-      <c r="AJ59" s="13"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
-      <c r="X60" s="18"/>
-      <c r="Y60" s="18"/>
-      <c r="Z60" s="18"/>
-      <c r="AA60" s="18"/>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
-      <c r="AI60" s="18"/>
-      <c r="AJ60" s="18"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="18"/>
-      <c r="Y61" s="18"/>
-      <c r="Z61" s="18"/>
-      <c r="AA61" s="18"/>
-      <c r="AB61" s="18"/>
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="18"/>
-      <c r="AF61" s="18"/>
-      <c r="AG61" s="18"/>
-      <c r="AH61" s="18"/>
-      <c r="AI61" s="18"/>
-      <c r="AJ61" s="18"/>
-    </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="14"/>
+      <c r="AJ71" s="14"/>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="19"/>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="14"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="14"/>
+      <c r="AJ75" s="14"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="14"/>
+      <c r="W76" s="14"/>
+      <c r="X76" s="14"/>
+      <c r="Y76" s="14"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="14"/>
+      <c r="AJ76" s="14"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="14"/>
+      <c r="AD77" s="14"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="14"/>
+      <c r="AJ77" s="14"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="14"/>
+      <c r="U78" s="19"/>
+      <c r="V78" s="14"/>
+      <c r="W78" s="14"/>
+      <c r="X78" s="14"/>
+      <c r="Y78" s="14"/>
+      <c r="Z78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AC78" s="14"/>
+      <c r="AD78" s="14"/>
+      <c r="AE78" s="14"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="14"/>
+      <c r="AH78" s="19"/>
+      <c r="AI78" s="14"/>
+      <c r="AJ78" s="14"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
+      <c r="AH79" s="19"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="19"/>
+      <c r="S80" s="19"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="19"/>
+      <c r="V80" s="19"/>
+      <c r="W80" s="19"/>
+      <c r="X80" s="19"/>
+      <c r="Y80" s="19"/>
+      <c r="Z80" s="19"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="19"/>
+      <c r="AC80" s="19"/>
+      <c r="AD80" s="19"/>
+      <c r="AE80" s="19"/>
+      <c r="AF80" s="19"/>
+      <c r="AG80" s="19"/>
+      <c r="AH80" s="19"/>
+      <c r="AI80" s="19"/>
+      <c r="AJ80" s="19"/>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="19"/>
+      <c r="S81" s="19"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
+      <c r="X81" s="19"/>
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="19"/>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="19"/>
+      <c r="AD81" s="19"/>
+      <c r="AE81" s="19"/>
+      <c r="AF81" s="19"/>
+      <c r="AG81" s="19"/>
+      <c r="AH81" s="19"/>
+      <c r="AI81" s="19"/>
+      <c r="AJ81" s="19"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J61" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J2:J81" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4053,394 +5220,394 @@
   </sheetPr>
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
+      <c r="C2" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
+      <c r="A3" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>132</v>
+      <c r="A4" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
+        <v>94</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>132</v>
+      <c r="A5" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>136</v>
+        <v>95</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>132</v>
+      <c r="A6" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>138</v>
+        <v>97</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>132</v>
+      <c r="A7" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>140</v>
+        <v>99</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>132</v>
+      <c r="A8" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>132</v>
+      <c r="A9" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>144</v>
+        <v>103</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>132</v>
+      <c r="A10" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>146</v>
+        <v>105</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>132</v>
+      <c r="A11" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="29"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="29"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="29"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="29"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="29"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C17" s="29"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C18" s="29"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C19" s="29"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="29"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="29"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="29"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="29"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="29"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="29"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="29"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="29"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="29"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C29" s="29"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="29"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="29"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="29"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="29"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C34" s="29"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="29"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C36" s="29"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="29"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="29"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="29"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C40" s="29"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C41" s="29"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C42" s="29"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C43" s="29"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C44" s="29"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C45" s="29"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C46" s="29"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="29"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="29"/>
+      <c r="C48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C49" s="29"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C50" s="29"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C51" s="29"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C52" s="29"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="29"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="29"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="29"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C56" s="29"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="29"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="29"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C59" s="29"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C60" s="29"/>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C61" s="29"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C62" s="29"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C63" s="29"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C64" s="29"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="29"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C66" s="29"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C67" s="29"/>
+      <c r="C67" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4460,13 +5627,13 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
@@ -4474,87 +5641,87 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>154</v>
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>45259.7595040244</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="27"/>
+        <v>45261.382722172</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="28"/>
       <c r="G2" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
+        <v>173</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4580,1128 +5747,1128 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
+      <c r="C2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
+      <c r="A3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
+      <c r="A5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
+      <c r="A6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
+      <c r="A7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
+      <c r="A8" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
+      <c r="A9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
+      <c r="A11" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
+      <c r="A12" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
+      <c r="A13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
+      <c r="A14" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
+      <c r="A15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
+      <c r="A16" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
+      <c r="A18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
+      <c r="A19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
+      <c r="A20" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
+      <c r="A21" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
+      <c r="A22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
+      <c r="A23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
+      <c r="A25" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
+      <c r="A26" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
+      <c r="A27" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
+      <c r="A28" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
+      <c r="A29" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
+      <c r="A31" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
+      <c r="A32" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5712,26 +6879,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B45" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B46" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5741,290 +6908,290 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
+      <c r="A48" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
+      <c r="A49" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>233</v>
+      <c r="A58" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>235</v>
+      <c r="A59" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>237</v>
+      <c r="A60" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>198</v>
+      <c r="A61" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>240</v>
+      <c r="A63" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>242</v>
+      <c r="A64" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>244</v>
+      <c r="A65" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>246</v>
+      <c r="A66" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>248</v>
+      <c r="A67" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/app/cholera_suspicion_follow_up.xlsx
+++ b/forms/app/cholera_suspicion_follow_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -543,6 +543,7 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">profuse_watery_diarrhea</t>
     </r>
@@ -577,6 +578,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dehydration</t>
     </r>
@@ -871,7 +873,7 @@
     <t xml:space="preserve">Cholera Suspicion Follow Up</t>
   </si>
   <si>
-    <t xml:space="preserve">cholera_follow_up</t>
+    <t xml:space="preserve">cholera_suspicion_follow_up</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -1182,7 +1184,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1238,18 +1240,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1483,43 +1473,51 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1527,27 +1525,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,7 +1620,7 @@
   </sheetPr>
   <dimension ref="A1:AJ81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -1638,7 +1628,7 @@
       <selection pane="bottomRight" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.29"/>
@@ -5226,7 +5216,7 @@
       <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.86"/>
@@ -5627,13 +5617,13 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
@@ -5691,7 +5681,7 @@
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>45261.382722172</v>
+        <v>45266.4253990188</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>171</v>
@@ -5747,7 +5737,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>

--- a/forms/app/cholera_suspicion_follow_up.xlsx
+++ b/forms/app/cholera_suspicion_follow_up.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="273">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -802,6 +802,12 @@
       </rPr>
       <t xml:space="preserve">} = 'yes'</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">the_finding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-medkit" aria-hidden="true"&gt;&lt;/i&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">advise</t>
@@ -1621,14 +1627,14 @@
   <dimension ref="A1:AJ81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
-      <selection pane="bottomRight" activeCell="K59" activeCellId="0" sqref="K59"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+      <selection pane="bottomRight" activeCell="L66" activeCellId="0" sqref="L66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.29"/>
@@ -4537,9 +4543,15 @@
       <c r="AJ65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -4547,8 +4559,12 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="12"/>
+      <c r="K66" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
@@ -4579,10 +4595,10 @@
         <v>89</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -4627,10 +4643,10 @@
         <v>89</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -4643,7 +4659,7 @@
         <v>92</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
@@ -4675,10 +4691,10 @@
         <v>89</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -4723,10 +4739,10 @@
         <v>89</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -5216,7 +5232,7 @@
       <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="0" width="45.86"/>
@@ -5224,7 +5240,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -5266,13 +5282,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -5296,13 +5312,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -5326,7 +5342,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>93</v>
@@ -5356,7 +5372,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>95</v>
@@ -5367,7 +5383,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>97</v>
@@ -5378,7 +5394,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>99</v>
@@ -5389,7 +5405,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>101</v>
@@ -5400,7 +5416,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>103</v>
@@ -5411,7 +5427,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>105</v>
@@ -5422,7 +5438,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>107</v>
@@ -5623,7 +5639,7 @@
       <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
@@ -5632,25 +5648,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
@@ -5674,24 +5690,24 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>45266.4253990188</v>
+        <v>45273.7085153842</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -5737,7 +5753,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="2" style="0" width="45.86"/>
@@ -5745,7 +5761,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
@@ -5788,13 +5804,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -5819,13 +5835,13 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -5875,13 +5891,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -5906,13 +5922,13 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -5937,13 +5953,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -5968,13 +5984,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -5999,13 +6015,13 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6055,13 +6071,13 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6086,13 +6102,13 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6117,13 +6133,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6148,13 +6164,13 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6179,13 +6195,13 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6210,13 +6226,13 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6266,13 +6282,13 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6297,13 +6313,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6328,13 +6344,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6359,13 +6375,13 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6390,13 +6406,13 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6421,13 +6437,13 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6477,13 +6493,13 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6508,13 +6524,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -6539,13 +6555,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -6570,13 +6586,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6601,13 +6617,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -6657,13 +6673,13 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -6688,13 +6704,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -6744,121 +6760,121 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B34" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B35" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C35, "(", ""), ")", "")), " ", "_")</f>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B36" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C36, "(", ""), ")", "")), " ", "_")</f>
         <v>injectibles</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B37" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C37, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B38" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C38, "(", ""), ")", "")), " ", "_")</f>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B39" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C39, "(", ""), ")", "")), " ", "_")</f>
         <v>iud</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B40" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C40, "(", ""), ")", "")), " ", "_")</f>
         <v>condoms</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B41" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C41, "(", ""), ")", "")), " ", "_")</f>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B42" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C42, "(", ""), ")", "")), " ", "_")</f>
         <v>cycle_beads</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6869,26 +6885,26 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B45" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C45, "(", ""), ")", "")), " ", "_")</f>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B46" s="0" t="str">
         <f aca="false">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C46, "(", ""), ")", "")), " ", "_")</f>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6899,13 +6915,13 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
@@ -6930,13 +6946,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
@@ -6962,226 +6978,226 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
